--- a/Simulacion_caso_base.xlsx
+++ b/Simulacion_caso_base.xlsx
@@ -1,23 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10102"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/irojas/Documents/Dev/SF - Celda Jameson - BHP- S186/Split Factor/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\igroj\OneDrive\Documentos\DEV\Split-Factores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18DC4933-D925-FD4D-B74A-802A398EFEA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D9D6194-B26D-42A3-8221-AAC1300085F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="680" windowWidth="30240" windowHeight="17160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sim MC" sheetId="6" r:id="rId2"/>
-    <sheet name="Pilotaje Cleaner" sheetId="2" r:id="rId3"/>
-    <sheet name="Valores SF" sheetId="3" r:id="rId4"/>
-    <sheet name="Alim" sheetId="4" r:id="rId5"/>
+    <sheet name="Sim Dia" sheetId="13" r:id="rId1"/>
+    <sheet name="Sim Noche" sheetId="9" r:id="rId2"/>
+    <sheet name="Sim Promedio" sheetId="8" r:id="rId3"/>
+    <sheet name="Sim MC Dia" sheetId="6" r:id="rId4"/>
+    <sheet name="Sim MC Noche" sheetId="10" r:id="rId5"/>
+    <sheet name="Sim MC Promedio" sheetId="12" r:id="rId6"/>
+    <sheet name="Pilotaje Cleaner" sheetId="2" r:id="rId7"/>
+    <sheet name="SF" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="26">
   <si>
     <t>Simulacion</t>
   </si>
@@ -75,52 +78,59 @@
     <t>suma</t>
   </si>
   <si>
-    <t>SF 1era Cl</t>
+    <t>Jameson 1</t>
   </si>
   <si>
-    <t>Rec</t>
+    <t>sf masa</t>
   </si>
   <si>
-    <t>Masa</t>
+    <t>sf cuf</t>
   </si>
   <si>
-    <t>SF Scavenger</t>
+    <t>turno</t>
   </si>
   <si>
-    <t>Cl-Scv</t>
+    <t>dia</t>
   </si>
   <si>
-    <t>RE</t>
+    <t>cleaner ro</t>
   </si>
   <si>
-    <t>Ley Alimentación</t>
+    <t>scavenger</t>
   </si>
   <si>
-    <t>Alim</t>
+    <t>cl scavenger</t>
   </si>
   <si>
-    <t>Sim</t>
+    <t>noche</t>
   </si>
   <si>
-    <t>Jameson 1</t>
+    <t>promedio</t>
+  </si>
+  <si>
+    <t>Pilotaje</t>
+  </si>
+  <si>
+    <t>base</t>
+  </si>
+  <si>
+    <t>Rec Cuf</t>
+  </si>
+  <si>
+    <t>Ley Conce</t>
+  </si>
+  <si>
+    <t>Cl Rougher</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -140,15 +150,8 @@
       <name val="Source Sans Pro"/>
       <family val="2"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Source Sans Pro"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -157,30 +160,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF002060"/>
+        <fgColor theme="3" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -333,84 +318,19 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -445,98 +365,44 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1427,24 +1293,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E078D8E5-296E-4F43-B0B3-335A9B3A5C9B}">
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:M18"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="E1" sqref="A1:E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="13" width="8.6640625" style="4"/>
+    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="13" width="8.7109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1485,7 +1351,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
         <v>1</v>
       </c>
@@ -1493,12 +1359,12 @@
         <v>9</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="48">
+        <v>11</v>
+      </c>
+      <c r="D2" s="39">
         <v>8.2500000000000004E-2</v>
       </c>
-      <c r="E2" s="48">
+      <c r="E2" s="39">
         <v>0.68720000000000003</v>
       </c>
       <c r="F2" s="6">
@@ -1526,90 +1392,89 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
         <v>1</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="51" t="s">
+      <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="52">
-        <v>0</v>
-      </c>
-      <c r="E3" s="52">
-        <f>'Valores SF'!D14</f>
-        <v>0</v>
-      </c>
-      <c r="F3" s="53">
-        <v>0</v>
-      </c>
-      <c r="G3" s="53">
-        <v>0</v>
-      </c>
-      <c r="H3" s="53">
-        <v>1</v>
-      </c>
-      <c r="I3" s="53">
-        <v>-1</v>
-      </c>
-      <c r="J3" s="53">
-        <v>0</v>
-      </c>
-      <c r="K3" s="53">
-        <v>0</v>
-      </c>
-      <c r="L3" s="53">
+      <c r="D3" s="17">
+        <v>0</v>
+      </c>
+      <c r="E3" s="17">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0</v>
+      </c>
+      <c r="H3" s="4">
+        <v>1</v>
+      </c>
+      <c r="I3" s="4">
+        <v>-1</v>
+      </c>
+      <c r="J3" s="4">
+        <v>0</v>
+      </c>
+      <c r="K3" s="4">
+        <v>0</v>
+      </c>
+      <c r="L3" s="4">
         <v>0</v>
       </c>
       <c r="M3" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
         <v>1</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="51" t="s">
+      <c r="C4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="52">
-        <v>0.27879999999999999</v>
-      </c>
-      <c r="E4" s="52">
-        <v>0.93959999999999999</v>
-      </c>
-      <c r="F4" s="53">
-        <v>0</v>
-      </c>
-      <c r="G4" s="53">
-        <v>0</v>
-      </c>
-      <c r="H4" s="53">
-        <v>0</v>
-      </c>
-      <c r="I4" s="53">
-        <v>1</v>
-      </c>
-      <c r="J4" s="53">
-        <v>-1</v>
-      </c>
-      <c r="K4" s="53">
-        <v>-1</v>
-      </c>
-      <c r="L4" s="53">
+      <c r="D4" s="17">
+        <v>0.30514764696778662</v>
+      </c>
+      <c r="E4" s="17">
+        <v>0.94665021081546574</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
+        <v>1</v>
+      </c>
+      <c r="J4" s="4">
+        <v>-1</v>
+      </c>
+      <c r="K4" s="4">
+        <v>-1</v>
+      </c>
+      <c r="L4" s="4">
         <v>0</v>
       </c>
       <c r="M4" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>1</v>
       </c>
@@ -1619,11 +1484,11 @@
       <c r="C5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="55">
-        <v>0.22670000000000001</v>
-      </c>
-      <c r="E5" s="55">
-        <v>0.60540000000000005</v>
+      <c r="D5" s="19">
+        <v>0.18492230973091794</v>
+      </c>
+      <c r="E5" s="19">
+        <v>0.62894801769315822</v>
       </c>
       <c r="F5" s="10">
         <v>0</v>
@@ -1650,7 +1515,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>2</v>
       </c>
@@ -1658,12 +1523,12 @@
         <v>9</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="48">
+        <v>11</v>
+      </c>
+      <c r="D6" s="39">
         <v>0.1069</v>
       </c>
-      <c r="E6" s="48">
+      <c r="E6" s="39">
         <v>0.76739999999999997</v>
       </c>
       <c r="F6" s="6">
@@ -1691,91 +1556,90 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>2</v>
       </c>
-      <c r="B7" s="51" t="s">
+      <c r="B7" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="51" t="s">
+      <c r="C7" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="52">
-        <v>0</v>
-      </c>
-      <c r="E7" s="52">
-        <f>'Valores SF'!D18</f>
-        <v>0.31618759455370643</v>
-      </c>
-      <c r="F7" s="53">
-        <v>0</v>
-      </c>
-      <c r="G7" s="53">
-        <v>0</v>
-      </c>
-      <c r="H7" s="53">
-        <v>1</v>
-      </c>
-      <c r="I7" s="53">
-        <v>-1</v>
-      </c>
-      <c r="J7" s="53">
-        <v>0</v>
-      </c>
-      <c r="K7" s="53">
-        <v>0</v>
-      </c>
-      <c r="L7" s="53">
+      <c r="D7" s="17">
+        <v>0</v>
+      </c>
+      <c r="E7" s="17">
+        <v>0</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0</v>
+      </c>
+      <c r="H7" s="4">
+        <v>1</v>
+      </c>
+      <c r="I7" s="4">
+        <v>-1</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0</v>
+      </c>
+      <c r="K7" s="4">
+        <v>0</v>
+      </c>
+      <c r="L7" s="4">
         <v>0</v>
       </c>
       <c r="M7" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>2</v>
       </c>
-      <c r="B8" s="51" t="s">
+      <c r="B8" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="51" t="s">
+      <c r="C8" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="52">
-        <v>0.27879999999999999</v>
-      </c>
-      <c r="E8" s="52">
-        <v>0.93959999999999999</v>
-      </c>
-      <c r="F8" s="53">
-        <v>0</v>
-      </c>
-      <c r="G8" s="53">
-        <v>0</v>
-      </c>
-      <c r="H8" s="53">
-        <v>0</v>
-      </c>
-      <c r="I8" s="53">
-        <v>1</v>
-      </c>
-      <c r="J8" s="53">
-        <v>-1</v>
-      </c>
-      <c r="K8" s="53">
-        <v>-1</v>
-      </c>
-      <c r="L8" s="53">
+      <c r="D8" s="17">
+        <v>0.30514764696778662</v>
+      </c>
+      <c r="E8" s="17">
+        <v>0.94665021081546574</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4">
+        <v>1</v>
+      </c>
+      <c r="J8" s="4">
+        <v>-1</v>
+      </c>
+      <c r="K8" s="4">
+        <v>-1</v>
+      </c>
+      <c r="L8" s="4">
         <v>0</v>
       </c>
       <c r="M8" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="54">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="18">
         <v>2</v>
       </c>
       <c r="B9" s="9" t="s">
@@ -1784,11 +1648,11 @@
       <c r="C9" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="55">
-        <v>0.22670000000000001</v>
-      </c>
-      <c r="E9" s="55">
-        <v>0.60540000000000005</v>
+      <c r="D9" s="19">
+        <v>0.18492230973091794</v>
+      </c>
+      <c r="E9" s="19">
+        <v>0.62894801769315822</v>
       </c>
       <c r="F9" s="10">
         <v>0</v>
@@ -1815,7 +1679,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>3</v>
       </c>
@@ -1823,13 +1687,13 @@
         <v>9</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="48">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="E10" s="48">
-        <v>0.443</v>
+        <v>25</v>
+      </c>
+      <c r="D10" s="39">
+        <v>3.4392535429906737E-2</v>
+      </c>
+      <c r="E10" s="39">
+        <v>0.3390850580112918</v>
       </c>
       <c r="F10" s="6">
         <v>1</v>
@@ -1856,91 +1720,90 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>3</v>
       </c>
-      <c r="B11" s="51" t="s">
+      <c r="B11" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="51" t="s">
+      <c r="C11" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="52">
-        <v>0</v>
-      </c>
-      <c r="E11" s="52">
-        <f>'Valores SF'!D22</f>
-        <v>5.3569066619637583E-2</v>
-      </c>
-      <c r="F11" s="53">
-        <v>0</v>
-      </c>
-      <c r="G11" s="53">
-        <v>0</v>
-      </c>
-      <c r="H11" s="53">
-        <v>1</v>
-      </c>
-      <c r="I11" s="53">
-        <v>-1</v>
-      </c>
-      <c r="J11" s="53">
-        <v>0</v>
-      </c>
-      <c r="K11" s="53">
-        <v>0</v>
-      </c>
-      <c r="L11" s="53">
+      <c r="D11" s="17">
+        <v>0</v>
+      </c>
+      <c r="E11" s="17">
+        <v>0</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0</v>
+      </c>
+      <c r="H11" s="4">
+        <v>1</v>
+      </c>
+      <c r="I11" s="4">
+        <v>-1</v>
+      </c>
+      <c r="J11" s="4">
+        <v>0</v>
+      </c>
+      <c r="K11" s="4">
+        <v>0</v>
+      </c>
+      <c r="L11" s="4">
         <v>0</v>
       </c>
       <c r="M11" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>3</v>
       </c>
-      <c r="B12" s="51" t="s">
+      <c r="B12" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="51" t="s">
+      <c r="C12" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="52">
-        <v>0.27879999999999999</v>
-      </c>
-      <c r="E12" s="52">
-        <v>0.93959999999999999</v>
-      </c>
-      <c r="F12" s="53">
-        <v>0</v>
-      </c>
-      <c r="G12" s="53">
-        <v>0</v>
-      </c>
-      <c r="H12" s="53">
-        <v>0</v>
-      </c>
-      <c r="I12" s="53">
-        <v>1</v>
-      </c>
-      <c r="J12" s="53">
-        <v>-1</v>
-      </c>
-      <c r="K12" s="53">
-        <v>-1</v>
-      </c>
-      <c r="L12" s="53">
+      <c r="D12" s="17">
+        <v>0.30514764696778662</v>
+      </c>
+      <c r="E12" s="17">
+        <v>0.94665021081546574</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0</v>
+      </c>
+      <c r="H12" s="4">
+        <v>0</v>
+      </c>
+      <c r="I12" s="4">
+        <v>1</v>
+      </c>
+      <c r="J12" s="4">
+        <v>-1</v>
+      </c>
+      <c r="K12" s="4">
+        <v>-1</v>
+      </c>
+      <c r="L12" s="4">
         <v>0</v>
       </c>
       <c r="M12" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="54">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="18">
         <v>3</v>
       </c>
       <c r="B13" s="9" t="s">
@@ -1949,11 +1812,11 @@
       <c r="C13" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="55">
-        <v>0.22670000000000001</v>
-      </c>
-      <c r="E13" s="55">
-        <v>0.60540000000000005</v>
+      <c r="D13" s="19">
+        <v>0.18492230973091794</v>
+      </c>
+      <c r="E13" s="19">
+        <v>0.62894801769315822</v>
       </c>
       <c r="F13" s="10">
         <v>0</v>
@@ -1980,7 +1843,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14"/>
       <c r="F14"/>
       <c r="G14"/>
@@ -1991,7 +1854,7 @@
       <c r="L14"/>
       <c r="M14"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15"/>
       <c r="F15"/>
       <c r="G15"/>
@@ -2002,7 +1865,7 @@
       <c r="L15"/>
       <c r="M15"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16"/>
       <c r="F16"/>
       <c r="G16"/>
@@ -2013,57 +1876,1287 @@
       <c r="L16"/>
       <c r="M16"/>
     </row>
-    <row r="17" spans="4:4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="18" spans="4:4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="19" spans="4:4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D19" s="48"/>
-    </row>
-    <row r="20" spans="4:4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D20" s="52"/>
-    </row>
-    <row r="21" spans="4:4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D21" s="52"/>
-    </row>
-    <row r="22" spans="4:4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D22" s="55"/>
-    </row>
-    <row r="23" spans="4:4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D23" s="48"/>
-    </row>
-    <row r="24" spans="4:4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D24" s="52"/>
-    </row>
-    <row r="25" spans="4:4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D25" s="52"/>
-    </row>
-    <row r="26" spans="4:4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D26" s="55"/>
-    </row>
-    <row r="27" spans="4:4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="17" spans="4:4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="4:4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="4:4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="4:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D20" s="17"/>
+    </row>
+    <row r="21" spans="4:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D21" s="17"/>
+    </row>
+    <row r="22" spans="4:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D22" s="19"/>
+    </row>
+    <row r="23" spans="4:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D23" s="16"/>
+    </row>
+    <row r="24" spans="4:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D24" s="17"/>
+    </row>
+    <row r="25" spans="4:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D25" s="17"/>
+    </row>
+    <row r="26" spans="4:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D26" s="19"/>
+    </row>
+    <row r="27" spans="4:4" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90D25342-4F23-46DA-B5CE-61B494E15E98}">
+  <dimension ref="A1:M27"/>
+  <sheetViews>
+    <sheetView zoomScale="200" workbookViewId="0">
+      <selection activeCell="C16" sqref="B16:C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="13" width="8.7109375" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3">
+        <v>5</v>
+      </c>
+      <c r="H1" s="3">
+        <v>6</v>
+      </c>
+      <c r="I1" s="3">
+        <v>7</v>
+      </c>
+      <c r="J1" s="3">
+        <v>8</v>
+      </c>
+      <c r="K1" s="3">
+        <v>9</v>
+      </c>
+      <c r="L1" s="3">
+        <v>10</v>
+      </c>
+      <c r="M1" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="12">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="16">
+        <v>8.2500000000000004E-2</v>
+      </c>
+      <c r="E2" s="16">
+        <v>0.68720000000000003</v>
+      </c>
+      <c r="F2" s="6">
+        <v>1</v>
+      </c>
+      <c r="G2" s="6">
+        <v>-1</v>
+      </c>
+      <c r="H2" s="6">
+        <v>-1</v>
+      </c>
+      <c r="I2" s="6">
+        <v>0</v>
+      </c>
+      <c r="J2" s="6">
+        <v>0</v>
+      </c>
+      <c r="K2" s="6">
+        <v>0</v>
+      </c>
+      <c r="L2" s="6">
+        <v>0</v>
+      </c>
+      <c r="M2" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="13">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="17">
+        <v>0</v>
+      </c>
+      <c r="E3" s="17">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0</v>
+      </c>
+      <c r="H3" s="4">
+        <v>1</v>
+      </c>
+      <c r="I3" s="4">
+        <v>-1</v>
+      </c>
+      <c r="J3" s="4">
+        <v>0</v>
+      </c>
+      <c r="K3" s="4">
+        <v>0</v>
+      </c>
+      <c r="L3" s="4">
+        <v>0</v>
+      </c>
+      <c r="M3" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="13">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="17">
+        <v>0.24640000000000001</v>
+      </c>
+      <c r="E4" s="17">
+        <v>0.90749999999999997</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
+        <v>1</v>
+      </c>
+      <c r="J4" s="4">
+        <v>-1</v>
+      </c>
+      <c r="K4" s="4">
+        <v>-1</v>
+      </c>
+      <c r="L4" s="4">
+        <v>0</v>
+      </c>
+      <c r="M4" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="14">
+        <v>1</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="19">
+        <v>0.3916</v>
+      </c>
+      <c r="E5" s="19">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="F5" s="10">
+        <v>0</v>
+      </c>
+      <c r="G5" s="10">
+        <v>0</v>
+      </c>
+      <c r="H5" s="10">
+        <v>0</v>
+      </c>
+      <c r="I5" s="10">
+        <v>0</v>
+      </c>
+      <c r="J5" s="10">
+        <v>1</v>
+      </c>
+      <c r="K5" s="10">
+        <v>0</v>
+      </c>
+      <c r="L5" s="10">
+        <v>-1</v>
+      </c>
+      <c r="M5" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="12">
+        <v>2</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="16">
+        <v>0.1069</v>
+      </c>
+      <c r="E6" s="16">
+        <v>0.76739999999999997</v>
+      </c>
+      <c r="F6" s="6">
+        <v>1</v>
+      </c>
+      <c r="G6" s="6">
+        <v>-1</v>
+      </c>
+      <c r="H6" s="6">
+        <v>-1</v>
+      </c>
+      <c r="I6" s="6">
+        <v>0</v>
+      </c>
+      <c r="J6" s="6">
+        <v>0</v>
+      </c>
+      <c r="K6" s="6">
+        <v>0</v>
+      </c>
+      <c r="L6" s="6">
+        <v>0</v>
+      </c>
+      <c r="M6" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="12">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="17">
+        <v>0</v>
+      </c>
+      <c r="E7" s="17">
+        <v>0</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0</v>
+      </c>
+      <c r="H7" s="4">
+        <v>1</v>
+      </c>
+      <c r="I7" s="4">
+        <v>-1</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0</v>
+      </c>
+      <c r="K7" s="4">
+        <v>0</v>
+      </c>
+      <c r="L7" s="4">
+        <v>0</v>
+      </c>
+      <c r="M7" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="12">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="17">
+        <v>0.24640000000000001</v>
+      </c>
+      <c r="E8" s="17">
+        <v>0.90749999999999997</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4">
+        <v>1</v>
+      </c>
+      <c r="J8" s="4">
+        <v>-1</v>
+      </c>
+      <c r="K8" s="4">
+        <v>-1</v>
+      </c>
+      <c r="L8" s="4">
+        <v>0</v>
+      </c>
+      <c r="M8" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="18">
+        <v>2</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="19">
+        <v>0.3916</v>
+      </c>
+      <c r="E9" s="19">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="F9" s="10">
+        <v>0</v>
+      </c>
+      <c r="G9" s="10">
+        <v>0</v>
+      </c>
+      <c r="H9" s="10">
+        <v>0</v>
+      </c>
+      <c r="I9" s="10">
+        <v>0</v>
+      </c>
+      <c r="J9" s="10">
+        <v>1</v>
+      </c>
+      <c r="K9" s="10">
+        <v>0</v>
+      </c>
+      <c r="L9" s="10">
+        <v>-1</v>
+      </c>
+      <c r="M9" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="12">
+        <v>3</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="16">
+        <v>5.7200000000000001E-2</v>
+      </c>
+      <c r="E10" s="16">
+        <v>0.51290000000000002</v>
+      </c>
+      <c r="F10" s="6">
+        <v>1</v>
+      </c>
+      <c r="G10" s="6">
+        <v>-1</v>
+      </c>
+      <c r="H10" s="6">
+        <v>-1</v>
+      </c>
+      <c r="I10" s="6">
+        <v>0</v>
+      </c>
+      <c r="J10" s="6">
+        <v>0</v>
+      </c>
+      <c r="K10" s="6">
+        <v>0</v>
+      </c>
+      <c r="L10" s="6">
+        <v>0</v>
+      </c>
+      <c r="M10" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="12">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="17">
+        <v>0</v>
+      </c>
+      <c r="E11" s="17">
+        <v>0</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0</v>
+      </c>
+      <c r="H11" s="4">
+        <v>1</v>
+      </c>
+      <c r="I11" s="4">
+        <v>-1</v>
+      </c>
+      <c r="J11" s="4">
+        <v>0</v>
+      </c>
+      <c r="K11" s="4">
+        <v>0</v>
+      </c>
+      <c r="L11" s="4">
+        <v>0</v>
+      </c>
+      <c r="M11" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="12">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="17">
+        <v>0.24640000000000001</v>
+      </c>
+      <c r="E12" s="17">
+        <v>0.90749999999999997</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0</v>
+      </c>
+      <c r="H12" s="4">
+        <v>0</v>
+      </c>
+      <c r="I12" s="4">
+        <v>1</v>
+      </c>
+      <c r="J12" s="4">
+        <v>-1</v>
+      </c>
+      <c r="K12" s="4">
+        <v>-1</v>
+      </c>
+      <c r="L12" s="4">
+        <v>0</v>
+      </c>
+      <c r="M12" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="18">
+        <v>3</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="19">
+        <v>0.3916</v>
+      </c>
+      <c r="E13" s="19">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="F13" s="10">
+        <v>0</v>
+      </c>
+      <c r="G13" s="10">
+        <v>0</v>
+      </c>
+      <c r="H13" s="10">
+        <v>0</v>
+      </c>
+      <c r="I13" s="10">
+        <v>0</v>
+      </c>
+      <c r="J13" s="10">
+        <v>1</v>
+      </c>
+      <c r="K13" s="10">
+        <v>0</v>
+      </c>
+      <c r="L13" s="10">
+        <v>-1</v>
+      </c>
+      <c r="M13" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="I14"/>
+      <c r="J14"/>
+      <c r="K14"/>
+      <c r="L14"/>
+      <c r="M14"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15"/>
+      <c r="F15"/>
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="I15"/>
+      <c r="J15"/>
+      <c r="K15"/>
+      <c r="L15"/>
+      <c r="M15"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16"/>
+      <c r="F16"/>
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="I16"/>
+      <c r="J16"/>
+      <c r="K16"/>
+      <c r="L16"/>
+      <c r="M16"/>
+    </row>
+    <row r="17" spans="4:4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="4:4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="4:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D19" s="16"/>
+    </row>
+    <row r="20" spans="4:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D20" s="17"/>
+    </row>
+    <row r="21" spans="4:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D21" s="17"/>
+    </row>
+    <row r="22" spans="4:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D22" s="19"/>
+    </row>
+    <row r="23" spans="4:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D23" s="16"/>
+    </row>
+    <row r="24" spans="4:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D24" s="17"/>
+    </row>
+    <row r="25" spans="4:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D25" s="17"/>
+    </row>
+    <row r="26" spans="4:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D26" s="19"/>
+    </row>
+    <row r="27" spans="4:4" customFormat="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{717664B4-B73F-4C73-853A-F719EBB1823F}">
+  <dimension ref="A1:M27"/>
+  <sheetViews>
+    <sheetView zoomScale="200" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="13" width="8.7109375" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3">
+        <v>5</v>
+      </c>
+      <c r="H1" s="3">
+        <v>6</v>
+      </c>
+      <c r="I1" s="3">
+        <v>7</v>
+      </c>
+      <c r="J1" s="3">
+        <v>8</v>
+      </c>
+      <c r="K1" s="3">
+        <v>9</v>
+      </c>
+      <c r="L1" s="3">
+        <v>10</v>
+      </c>
+      <c r="M1" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="12">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="16">
+        <v>8.2500000000000004E-2</v>
+      </c>
+      <c r="E2" s="16">
+        <v>0.68720000000000003</v>
+      </c>
+      <c r="F2" s="6">
+        <v>1</v>
+      </c>
+      <c r="G2" s="6">
+        <v>-1</v>
+      </c>
+      <c r="H2" s="6">
+        <v>-1</v>
+      </c>
+      <c r="I2" s="6">
+        <v>0</v>
+      </c>
+      <c r="J2" s="6">
+        <v>0</v>
+      </c>
+      <c r="K2" s="6">
+        <v>0</v>
+      </c>
+      <c r="L2" s="6">
+        <v>0</v>
+      </c>
+      <c r="M2" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="13">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="17">
+        <v>0</v>
+      </c>
+      <c r="E3" s="17">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0</v>
+      </c>
+      <c r="H3" s="4">
+        <v>1</v>
+      </c>
+      <c r="I3" s="4">
+        <v>-1</v>
+      </c>
+      <c r="J3" s="4">
+        <v>0</v>
+      </c>
+      <c r="K3" s="4">
+        <v>0</v>
+      </c>
+      <c r="L3" s="4">
+        <v>0</v>
+      </c>
+      <c r="M3" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="13">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="17">
+        <v>0.28570301000811255</v>
+      </c>
+      <c r="E4" s="17">
+        <v>0.94029121080461608</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
+        <v>1</v>
+      </c>
+      <c r="J4" s="4">
+        <v>-1</v>
+      </c>
+      <c r="K4" s="4">
+        <v>-1</v>
+      </c>
+      <c r="L4" s="4">
+        <v>0</v>
+      </c>
+      <c r="M4" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="14">
+        <v>1</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="19">
+        <v>0.2176671344300154</v>
+      </c>
+      <c r="E5" s="19">
+        <v>0.58657807043630217</v>
+      </c>
+      <c r="F5" s="10">
+        <v>0</v>
+      </c>
+      <c r="G5" s="10">
+        <v>0</v>
+      </c>
+      <c r="H5" s="10">
+        <v>0</v>
+      </c>
+      <c r="I5" s="10">
+        <v>0</v>
+      </c>
+      <c r="J5" s="10">
+        <v>1</v>
+      </c>
+      <c r="K5" s="10">
+        <v>0</v>
+      </c>
+      <c r="L5" s="10">
+        <v>-1</v>
+      </c>
+      <c r="M5" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="12">
+        <v>2</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="16">
+        <v>0.1069</v>
+      </c>
+      <c r="E6" s="16">
+        <v>0.76739999999999997</v>
+      </c>
+      <c r="F6" s="6">
+        <v>1</v>
+      </c>
+      <c r="G6" s="6">
+        <v>-1</v>
+      </c>
+      <c r="H6" s="6">
+        <v>-1</v>
+      </c>
+      <c r="I6" s="6">
+        <v>0</v>
+      </c>
+      <c r="J6" s="6">
+        <v>0</v>
+      </c>
+      <c r="K6" s="6">
+        <v>0</v>
+      </c>
+      <c r="L6" s="6">
+        <v>0</v>
+      </c>
+      <c r="M6" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="12">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="17">
+        <v>0</v>
+      </c>
+      <c r="E7" s="17">
+        <v>0</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0</v>
+      </c>
+      <c r="H7" s="4">
+        <v>1</v>
+      </c>
+      <c r="I7" s="4">
+        <v>-1</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0</v>
+      </c>
+      <c r="K7" s="4">
+        <v>0</v>
+      </c>
+      <c r="L7" s="4">
+        <v>0</v>
+      </c>
+      <c r="M7" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="12">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="17">
+        <v>0.28570301000811255</v>
+      </c>
+      <c r="E8" s="17">
+        <v>0.94029121080461608</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4">
+        <v>1</v>
+      </c>
+      <c r="J8" s="4">
+        <v>-1</v>
+      </c>
+      <c r="K8" s="4">
+        <v>-1</v>
+      </c>
+      <c r="L8" s="4">
+        <v>0</v>
+      </c>
+      <c r="M8" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="18">
+        <v>2</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="19">
+        <v>0.2176671344300154</v>
+      </c>
+      <c r="E9" s="19">
+        <v>0.58657807043630217</v>
+      </c>
+      <c r="F9" s="10">
+        <v>0</v>
+      </c>
+      <c r="G9" s="10">
+        <v>0</v>
+      </c>
+      <c r="H9" s="10">
+        <v>0</v>
+      </c>
+      <c r="I9" s="10">
+        <v>0</v>
+      </c>
+      <c r="J9" s="10">
+        <v>1</v>
+      </c>
+      <c r="K9" s="10">
+        <v>0</v>
+      </c>
+      <c r="L9" s="10">
+        <v>-1</v>
+      </c>
+      <c r="M9" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="12">
+        <v>3</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="16">
+        <v>4.2688557763950759E-2</v>
+      </c>
+      <c r="E10" s="16">
+        <v>0.42965838120910627</v>
+      </c>
+      <c r="F10" s="6">
+        <v>1</v>
+      </c>
+      <c r="G10" s="6">
+        <v>-1</v>
+      </c>
+      <c r="H10" s="6">
+        <v>-1</v>
+      </c>
+      <c r="I10" s="6">
+        <v>0</v>
+      </c>
+      <c r="J10" s="6">
+        <v>0</v>
+      </c>
+      <c r="K10" s="6">
+        <v>0</v>
+      </c>
+      <c r="L10" s="6">
+        <v>0</v>
+      </c>
+      <c r="M10" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="12">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="17">
+        <v>0</v>
+      </c>
+      <c r="E11" s="17">
+        <v>0</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0</v>
+      </c>
+      <c r="H11" s="4">
+        <v>1</v>
+      </c>
+      <c r="I11" s="4">
+        <v>-1</v>
+      </c>
+      <c r="J11" s="4">
+        <v>0</v>
+      </c>
+      <c r="K11" s="4">
+        <v>0</v>
+      </c>
+      <c r="L11" s="4">
+        <v>0</v>
+      </c>
+      <c r="M11" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="12">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="17">
+        <v>0.28570301000811255</v>
+      </c>
+      <c r="E12" s="17">
+        <v>0.94029121080461597</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0</v>
+      </c>
+      <c r="H12" s="4">
+        <v>0</v>
+      </c>
+      <c r="I12" s="4">
+        <v>1</v>
+      </c>
+      <c r="J12" s="4">
+        <v>-1</v>
+      </c>
+      <c r="K12" s="4">
+        <v>-1</v>
+      </c>
+      <c r="L12" s="4">
+        <v>0</v>
+      </c>
+      <c r="M12" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="18">
+        <v>3</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="19">
+        <v>0.2176671344300154</v>
+      </c>
+      <c r="E13" s="19">
+        <v>0.58657807043630217</v>
+      </c>
+      <c r="F13" s="10">
+        <v>0</v>
+      </c>
+      <c r="G13" s="10">
+        <v>0</v>
+      </c>
+      <c r="H13" s="10">
+        <v>0</v>
+      </c>
+      <c r="I13" s="10">
+        <v>0</v>
+      </c>
+      <c r="J13" s="10">
+        <v>1</v>
+      </c>
+      <c r="K13" s="10">
+        <v>0</v>
+      </c>
+      <c r="L13" s="10">
+        <v>-1</v>
+      </c>
+      <c r="M13" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="I14"/>
+      <c r="J14"/>
+      <c r="K14"/>
+      <c r="L14"/>
+      <c r="M14"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15"/>
+      <c r="F15"/>
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="I15"/>
+      <c r="J15"/>
+      <c r="K15"/>
+      <c r="L15"/>
+      <c r="M15"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16"/>
+      <c r="F16"/>
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="I16"/>
+      <c r="J16"/>
+      <c r="K16"/>
+      <c r="L16"/>
+      <c r="M16"/>
+    </row>
+    <row r="17" spans="4:4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="4:4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="4:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D19" s="16"/>
+    </row>
+    <row r="20" spans="4:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D20" s="17"/>
+    </row>
+    <row r="21" spans="4:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D21" s="17"/>
+    </row>
+    <row r="22" spans="4:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D22" s="19"/>
+    </row>
+    <row r="23" spans="4:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D23" s="16"/>
+    </row>
+    <row r="24" spans="4:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D24" s="17"/>
+    </row>
+    <row r="25" spans="4:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D25" s="17"/>
+    </row>
+    <row r="26" spans="4:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D26" s="19"/>
+    </row>
+    <row r="27" spans="4:4" customFormat="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EA090E6-F226-E744-B0A6-88A2E445EE79}">
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView zoomScale="200" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="13" width="8.6640625" style="4"/>
+    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="13" width="8.7109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2104,7 +3197,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
         <v>1</v>
       </c>
@@ -2112,12 +3205,12 @@
         <v>9</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="48">
-        <v>0</v>
-      </c>
-      <c r="E2" s="48">
+        <v>11</v>
+      </c>
+      <c r="D2" s="17">
+        <v>0</v>
+      </c>
+      <c r="E2" s="17">
         <v>0</v>
       </c>
       <c r="F2" s="6">
@@ -2145,91 +3238,90 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>1</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="51" t="s">
+      <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="52">
-        <v>0</v>
-      </c>
-      <c r="E3" s="52">
-        <f>'Valores SF'!D26</f>
-        <v>0.10930487137383692</v>
-      </c>
-      <c r="F3" s="53">
-        <v>0</v>
-      </c>
-      <c r="G3" s="53">
-        <v>0</v>
-      </c>
-      <c r="H3" s="53">
-        <v>1</v>
-      </c>
-      <c r="I3" s="53">
-        <v>-1</v>
-      </c>
-      <c r="J3" s="53">
-        <v>0</v>
-      </c>
-      <c r="K3" s="53">
-        <v>0</v>
-      </c>
-      <c r="L3" s="53">
+      <c r="D3" s="17">
+        <v>0</v>
+      </c>
+      <c r="E3" s="17">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0</v>
+      </c>
+      <c r="H3" s="4">
+        <v>1</v>
+      </c>
+      <c r="I3" s="4">
+        <v>-1</v>
+      </c>
+      <c r="J3" s="4">
+        <v>0</v>
+      </c>
+      <c r="K3" s="4">
+        <v>0</v>
+      </c>
+      <c r="L3" s="4">
         <v>0</v>
       </c>
       <c r="M3" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>1</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="51" t="s">
+      <c r="C4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="52">
-        <v>0.27879999999999999</v>
-      </c>
-      <c r="E4" s="52">
-        <v>0.93959999999999999</v>
-      </c>
-      <c r="F4" s="53">
-        <v>0</v>
-      </c>
-      <c r="G4" s="53">
-        <v>0</v>
-      </c>
-      <c r="H4" s="53">
-        <v>0</v>
-      </c>
-      <c r="I4" s="53">
-        <v>1</v>
-      </c>
-      <c r="J4" s="53">
-        <v>-1</v>
-      </c>
-      <c r="K4" s="53">
-        <v>-1</v>
-      </c>
-      <c r="L4" s="53">
+      <c r="D4" s="17">
+        <v>0.30514764696778662</v>
+      </c>
+      <c r="E4" s="17">
+        <v>0.94665021081546574</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
+        <v>1</v>
+      </c>
+      <c r="J4" s="4">
+        <v>-1</v>
+      </c>
+      <c r="K4" s="4">
+        <v>-1</v>
+      </c>
+      <c r="L4" s="4">
         <v>0</v>
       </c>
       <c r="M4" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="54">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="18">
         <v>1</v>
       </c>
       <c r="B5" s="9" t="s">
@@ -2238,11 +3330,11 @@
       <c r="C5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="55">
-        <v>0.22670000000000001</v>
-      </c>
-      <c r="E5" s="55">
-        <v>0.60540000000000005</v>
+      <c r="D5" s="19">
+        <v>0.18492230973091794</v>
+      </c>
+      <c r="E5" s="19">
+        <v>0.62894801769315822</v>
       </c>
       <c r="F5" s="10">
         <v>0</v>
@@ -2269,9 +3361,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6"/>
-      <c r="D6" s="52"/>
+      <c r="D6" s="17"/>
       <c r="F6"/>
       <c r="G6"/>
       <c r="H6"/>
@@ -2281,9 +3373,8 @@
       <c r="L6"/>
       <c r="M6"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7"/>
-      <c r="D7" s="51"/>
       <c r="F7"/>
       <c r="G7"/>
       <c r="H7"/>
@@ -2293,7 +3384,7 @@
       <c r="L7"/>
       <c r="M7"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8"/>
       <c r="F8"/>
       <c r="G8"/>
@@ -2304,7 +3395,7 @@
       <c r="L8"/>
       <c r="M8"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9"/>
       <c r="F9"/>
       <c r="G9"/>
@@ -2315,7 +3406,7 @@
       <c r="L9"/>
       <c r="M9"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10"/>
       <c r="F10"/>
       <c r="G10"/>
@@ -2326,7 +3417,7 @@
       <c r="L10"/>
       <c r="M10"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11"/>
       <c r="F11"/>
       <c r="G11"/>
@@ -2337,7 +3428,7 @@
       <c r="L11"/>
       <c r="M11"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12"/>
       <c r="F12"/>
       <c r="G12"/>
@@ -2348,7 +3439,7 @@
       <c r="L12"/>
       <c r="M12"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13"/>
       <c r="F13"/>
       <c r="G13"/>
@@ -2359,7 +3450,7 @@
       <c r="L13"/>
       <c r="M13"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14"/>
       <c r="F14"/>
       <c r="G14"/>
@@ -2370,7 +3461,7 @@
       <c r="L14"/>
       <c r="M14"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15"/>
       <c r="F15"/>
       <c r="G15"/>
@@ -2386,17 +3477,695 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EE992EF-FA6D-4DA0-A4FF-74077388EFAA}">
+  <dimension ref="A1:M15"/>
+  <sheetViews>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="13" width="8.7109375" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3">
+        <v>5</v>
+      </c>
+      <c r="H1" s="3">
+        <v>6</v>
+      </c>
+      <c r="I1" s="3">
+        <v>7</v>
+      </c>
+      <c r="J1" s="3">
+        <v>8</v>
+      </c>
+      <c r="K1" s="3">
+        <v>9</v>
+      </c>
+      <c r="L1" s="3">
+        <v>10</v>
+      </c>
+      <c r="M1" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="12">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="17">
+        <v>0</v>
+      </c>
+      <c r="E2" s="17">
+        <v>0</v>
+      </c>
+      <c r="F2" s="6">
+        <v>1</v>
+      </c>
+      <c r="G2" s="6">
+        <v>-1</v>
+      </c>
+      <c r="H2" s="6">
+        <v>-1</v>
+      </c>
+      <c r="I2" s="6">
+        <v>0</v>
+      </c>
+      <c r="J2" s="6">
+        <v>0</v>
+      </c>
+      <c r="K2" s="6">
+        <v>0</v>
+      </c>
+      <c r="L2" s="6">
+        <v>0</v>
+      </c>
+      <c r="M2" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="12">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="17">
+        <v>0</v>
+      </c>
+      <c r="E3" s="17">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0</v>
+      </c>
+      <c r="H3" s="4">
+        <v>1</v>
+      </c>
+      <c r="I3" s="4">
+        <v>-1</v>
+      </c>
+      <c r="J3" s="4">
+        <v>0</v>
+      </c>
+      <c r="K3" s="4">
+        <v>0</v>
+      </c>
+      <c r="L3" s="4">
+        <v>0</v>
+      </c>
+      <c r="M3" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="12">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="17">
+        <v>0.24640000000000001</v>
+      </c>
+      <c r="E4" s="17">
+        <v>0.90749999999999997</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
+        <v>1</v>
+      </c>
+      <c r="J4" s="4">
+        <v>-1</v>
+      </c>
+      <c r="K4" s="4">
+        <v>-1</v>
+      </c>
+      <c r="L4" s="4">
+        <v>0</v>
+      </c>
+      <c r="M4" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="18">
+        <v>1</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="19">
+        <v>0.3916</v>
+      </c>
+      <c r="E5" s="19">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="F5" s="10">
+        <v>0</v>
+      </c>
+      <c r="G5" s="10">
+        <v>0</v>
+      </c>
+      <c r="H5" s="10">
+        <v>0</v>
+      </c>
+      <c r="I5" s="10">
+        <v>0</v>
+      </c>
+      <c r="J5" s="10">
+        <v>1</v>
+      </c>
+      <c r="K5" s="10">
+        <v>0</v>
+      </c>
+      <c r="L5" s="10">
+        <v>-1</v>
+      </c>
+      <c r="M5" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6"/>
+      <c r="D6" s="17"/>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6"/>
+      <c r="M6"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7"/>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8"/>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="I8"/>
+      <c r="J8"/>
+      <c r="K8"/>
+      <c r="L8"/>
+      <c r="M8"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9"/>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="I9"/>
+      <c r="J9"/>
+      <c r="K9"/>
+      <c r="L9"/>
+      <c r="M9"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10"/>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10"/>
+      <c r="J10"/>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11"/>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="J11"/>
+      <c r="K11"/>
+      <c r="L11"/>
+      <c r="M11"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12"/>
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12"/>
+      <c r="I12"/>
+      <c r="J12"/>
+      <c r="K12"/>
+      <c r="L12"/>
+      <c r="M12"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="J13"/>
+      <c r="K13"/>
+      <c r="L13"/>
+      <c r="M13"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="I14"/>
+      <c r="J14"/>
+      <c r="K14"/>
+      <c r="L14"/>
+      <c r="M14"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15"/>
+      <c r="F15"/>
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="I15"/>
+      <c r="J15"/>
+      <c r="K15"/>
+      <c r="L15"/>
+      <c r="M15"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FE59B82-ECD1-4A8C-A71E-35C0C556B1BA}">
+  <dimension ref="A1:M15"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="13" width="8.7109375" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3">
+        <v>5</v>
+      </c>
+      <c r="H1" s="3">
+        <v>6</v>
+      </c>
+      <c r="I1" s="3">
+        <v>7</v>
+      </c>
+      <c r="J1" s="3">
+        <v>8</v>
+      </c>
+      <c r="K1" s="3">
+        <v>9</v>
+      </c>
+      <c r="L1" s="3">
+        <v>10</v>
+      </c>
+      <c r="M1" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="12">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="17">
+        <v>0</v>
+      </c>
+      <c r="E2" s="17">
+        <v>0</v>
+      </c>
+      <c r="F2" s="6">
+        <v>1</v>
+      </c>
+      <c r="G2" s="6">
+        <v>-1</v>
+      </c>
+      <c r="H2" s="6">
+        <v>-1</v>
+      </c>
+      <c r="I2" s="6">
+        <v>0</v>
+      </c>
+      <c r="J2" s="6">
+        <v>0</v>
+      </c>
+      <c r="K2" s="6">
+        <v>0</v>
+      </c>
+      <c r="L2" s="6">
+        <v>0</v>
+      </c>
+      <c r="M2" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="12">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="17">
+        <v>0</v>
+      </c>
+      <c r="E3" s="17">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0</v>
+      </c>
+      <c r="H3" s="4">
+        <v>1</v>
+      </c>
+      <c r="I3" s="4">
+        <v>-1</v>
+      </c>
+      <c r="J3" s="4">
+        <v>0</v>
+      </c>
+      <c r="K3" s="4">
+        <v>0</v>
+      </c>
+      <c r="L3" s="4">
+        <v>0</v>
+      </c>
+      <c r="M3" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="12">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="17">
+        <v>0.28570301000811255</v>
+      </c>
+      <c r="E4" s="17">
+        <v>0.94029121080461608</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
+        <v>1</v>
+      </c>
+      <c r="J4" s="4">
+        <v>-1</v>
+      </c>
+      <c r="K4" s="4">
+        <v>-1</v>
+      </c>
+      <c r="L4" s="4">
+        <v>0</v>
+      </c>
+      <c r="M4" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="18">
+        <v>1</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="19">
+        <v>0.2176671344300154</v>
+      </c>
+      <c r="E5" s="19">
+        <v>0.58657807043630217</v>
+      </c>
+      <c r="F5" s="10">
+        <v>0</v>
+      </c>
+      <c r="G5" s="10">
+        <v>0</v>
+      </c>
+      <c r="H5" s="10">
+        <v>0</v>
+      </c>
+      <c r="I5" s="10">
+        <v>0</v>
+      </c>
+      <c r="J5" s="10">
+        <v>1</v>
+      </c>
+      <c r="K5" s="10">
+        <v>0</v>
+      </c>
+      <c r="L5" s="10">
+        <v>-1</v>
+      </c>
+      <c r="M5" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6"/>
+      <c r="D6" s="17"/>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6"/>
+      <c r="M6"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7"/>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8"/>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="I8"/>
+      <c r="J8"/>
+      <c r="K8"/>
+      <c r="L8"/>
+      <c r="M8"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9"/>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="I9"/>
+      <c r="J9"/>
+      <c r="K9"/>
+      <c r="L9"/>
+      <c r="M9"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10"/>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10"/>
+      <c r="J10"/>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11"/>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="J11"/>
+      <c r="K11"/>
+      <c r="L11"/>
+      <c r="M11"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12"/>
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12"/>
+      <c r="I12"/>
+      <c r="J12"/>
+      <c r="K12"/>
+      <c r="L12"/>
+      <c r="M12"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="J13"/>
+      <c r="K13"/>
+      <c r="L13"/>
+      <c r="M13"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="I14"/>
+      <c r="J14"/>
+      <c r="K14"/>
+      <c r="L14"/>
+      <c r="M14"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15"/>
+      <c r="F15"/>
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="I15"/>
+      <c r="J15"/>
+      <c r="K15"/>
+      <c r="L15"/>
+      <c r="M15"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8705843-A9C4-4C6E-96FF-E82A4A1069F5}">
-  <dimension ref="K5:S9"/>
+  <dimension ref="K5:S24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L20" sqref="J20:L25"/>
+      <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="5" spans="11:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="11:19" x14ac:dyDescent="0.25">
       <c r="L5" s="4">
         <v>4</v>
       </c>
@@ -2422,7 +4191,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="11:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="11:19" x14ac:dyDescent="0.25">
       <c r="K6" t="s">
         <v>5</v>
       </c>
@@ -2451,7 +4220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="11:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="11:19" x14ac:dyDescent="0.25">
       <c r="K7" t="s">
         <v>8</v>
       </c>
@@ -2480,7 +4249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="11:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="11:19" x14ac:dyDescent="0.25">
       <c r="K8" t="s">
         <v>6</v>
       </c>
@@ -2509,7 +4278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="11:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="11:19" x14ac:dyDescent="0.25">
       <c r="K9" t="s">
         <v>7</v>
       </c>
@@ -2538,627 +4307,517 @@
         <v>-1</v>
       </c>
     </row>
+    <row r="13" spans="11:19" x14ac:dyDescent="0.25">
+      <c r="K13" t="s">
+        <v>5</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>-1</v>
+      </c>
+      <c r="N13">
+        <v>-1</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="11:19" x14ac:dyDescent="0.25">
+      <c r="K14" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>-1</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="11:19" x14ac:dyDescent="0.25">
+      <c r="K15" t="s">
+        <v>6</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <v>-1</v>
+      </c>
+      <c r="Q15">
+        <v>-1</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="11:19" x14ac:dyDescent="0.25">
+      <c r="K16" t="s">
+        <v>7</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>1</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>-1</v>
+      </c>
+      <c r="S16">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="21" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="L21">
+        <f>L6-L13</f>
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <f t="shared" ref="M21:S21" si="0">M6-M13</f>
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="L22">
+        <f t="shared" ref="L22:S22" si="1">L7-L14</f>
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="L23">
+        <f t="shared" ref="L23:S23" si="2">L8-L15</f>
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="L24">
+        <f t="shared" ref="L24:S24" si="3">L9-L16</f>
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
+  <conditionalFormatting sqref="L6:S9">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{167B26B2-B4C4-46B7-B22E-1A83A8057B4E}">
-  <dimension ref="A1:H41"/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F746D5A2-FE83-417C-B718-B433C4C828A0}">
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="15">
-        <v>2.5368486609923178</v>
-      </c>
-      <c r="D1" s="15">
-        <v>5.356906661963758</v>
-      </c>
-      <c r="E1" s="15">
-        <v>10.930487137383691</v>
-      </c>
-      <c r="F1" s="15">
-        <v>4.6929691888855274</v>
-      </c>
-      <c r="G1" s="15">
-        <v>5.5042185616713546</v>
-      </c>
-      <c r="H1" s="15">
-        <v>6.1872909698996654</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="15">
-        <v>28.47325348160803</v>
-      </c>
-      <c r="D2" s="15">
-        <v>55.703385823835049</v>
-      </c>
-      <c r="E2" s="15">
-        <v>73.188736065155751</v>
-      </c>
-      <c r="F2" s="15">
-        <v>62.678087094135002</v>
-      </c>
-      <c r="G2" s="15">
-        <v>54.541802111107053</v>
-      </c>
-      <c r="H2" s="15">
-        <v>61.283643892339548</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="15">
-        <v>33.489420742282341</v>
-      </c>
-      <c r="D4" s="15">
-        <v>26.551924192612653</v>
-      </c>
-      <c r="E4" s="15">
-        <v>108.34298957126305</v>
-      </c>
-      <c r="F4" s="15">
-        <v>48.775116983209472</v>
-      </c>
-      <c r="G4" s="15">
-        <v>78.604651162790702</v>
-      </c>
-      <c r="H4" s="15">
-        <v>51.431049436253261</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="15">
-        <v>95.087468006864015</v>
-      </c>
-      <c r="D5" s="15">
-        <v>93.247829009770612</v>
-      </c>
-      <c r="E5" s="15">
-        <v>101.01150907395953</v>
-      </c>
-      <c r="F5" s="15">
-        <v>94.57254014453784</v>
-      </c>
-      <c r="G5" s="15">
-        <v>98.581523833997181</v>
-      </c>
-      <c r="H5" s="15">
-        <v>94.741406856256006</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="15">
-        <v>15.045710951176813</v>
-      </c>
-      <c r="D7" s="15">
-        <v>31.618759455370643</v>
-      </c>
-      <c r="E7" s="15">
-        <v>1.0517090271691496</v>
-      </c>
-      <c r="F7" s="15">
-        <v>9.7985074626865671</v>
-      </c>
-      <c r="G7" s="15">
-        <v>2.9052631578947365</v>
-      </c>
-      <c r="H7" s="15">
-        <v>5.5941741145316133</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="15">
-        <v>59.445807288517848</v>
-      </c>
-      <c r="D8" s="15">
-        <v>58.533409688567509</v>
-      </c>
-      <c r="E8" s="15">
-        <v>9.4303949563201463</v>
-      </c>
-      <c r="F8" s="15">
-        <v>40.616763955398646</v>
-      </c>
-      <c r="G8" s="15">
-        <v>32.418641316948751</v>
-      </c>
-      <c r="H8" s="15">
-        <v>38.154550797478876</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="49" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="50"/>
-      <c r="C11" s="46">
-        <v>2.2959999999999998</v>
-      </c>
-      <c r="D11" s="47">
-        <v>2.2839999999999998</v>
-      </c>
-      <c r="E11" s="47">
-        <v>2.8570000000000002</v>
-      </c>
-      <c r="F11" s="47">
-        <v>1.7849999999999999</v>
-      </c>
-      <c r="G11" s="47">
-        <v>2.64</v>
-      </c>
-      <c r="H11" s="47">
-        <v>1.89</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="16">
-        <v>2.5368486609923177E-2</v>
-      </c>
-      <c r="D12" s="16">
-        <v>5.3569066619637583E-2</v>
-      </c>
-      <c r="E12" s="16">
-        <v>0.10930487137383692</v>
-      </c>
-      <c r="F12" s="16">
-        <v>4.6929691888855277E-2</v>
-      </c>
-      <c r="G12" s="16">
-        <v>5.5042185616713549E-2</v>
-      </c>
-      <c r="H12" s="17">
-        <v>6.1872909698996656E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="29"/>
-      <c r="B13" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="18">
-        <v>0.2847325348160803</v>
-      </c>
-      <c r="D13" s="18">
-        <v>0.5570338582383505</v>
-      </c>
-      <c r="E13" s="18">
-        <v>0.73188736065155746</v>
-      </c>
-      <c r="F13" s="18">
-        <v>0.62678087094135004</v>
-      </c>
-      <c r="G13" s="18">
-        <v>0.54541802111107052</v>
-      </c>
-      <c r="H13" s="19">
-        <v>0.61283643892339545</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="30"/>
-      <c r="B14" s="37"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="39"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="24">
-        <v>0.33489420742282339</v>
-      </c>
-      <c r="D15" s="24">
-        <v>0.26551924192612653</v>
-      </c>
-      <c r="E15" s="24">
-        <v>1.0834298957126305</v>
-      </c>
-      <c r="F15" s="24">
-        <v>0.48775116983209471</v>
-      </c>
-      <c r="G15" s="24">
-        <v>0.78604651162790706</v>
-      </c>
-      <c r="H15" s="25">
-        <v>0.51431049436253262</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="32"/>
-      <c r="B16" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="26">
-        <v>0.95087468006864018</v>
-      </c>
-      <c r="D16" s="26">
-        <v>0.93247829009770611</v>
-      </c>
-      <c r="E16" s="26">
-        <v>1.0101150907395953</v>
-      </c>
-      <c r="F16" s="26">
-        <v>0.94572540144537842</v>
-      </c>
-      <c r="G16" s="26">
-        <v>0.98581523833997187</v>
-      </c>
-      <c r="H16" s="27">
-        <v>0.94741406856256005</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="33"/>
-      <c r="B17" s="40"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="42"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="20">
-        <v>0.15045710951176813</v>
-      </c>
-      <c r="D18" s="20">
-        <v>0.31618759455370643</v>
-      </c>
-      <c r="E18" s="20">
-        <v>1.0517090271691495E-2</v>
-      </c>
-      <c r="F18" s="20">
-        <v>9.7985074626865676E-2</v>
-      </c>
-      <c r="G18" s="20">
-        <v>2.9052631578947365E-2</v>
-      </c>
-      <c r="H18" s="21">
-        <v>5.594174114531613E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="35"/>
-      <c r="B19" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="22">
-        <v>0.59445807288517849</v>
-      </c>
-      <c r="D19" s="22">
-        <v>0.58533409688567506</v>
-      </c>
-      <c r="E19" s="22">
-        <v>9.430394956320147E-2</v>
-      </c>
-      <c r="F19" s="22">
-        <v>0.40616763955398644</v>
-      </c>
-      <c r="G19" s="22">
-        <v>0.32418641316948749</v>
-      </c>
-      <c r="H19" s="23">
-        <v>0.38154550797478876</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="36"/>
-      <c r="B20" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="44"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="45"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D22" s="16">
-        <v>5.3569066619637583E-2</v>
-      </c>
-      <c r="E22" s="18">
-        <v>0.5570338582383505</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D23" s="16">
-        <v>0</v>
-      </c>
-      <c r="E23" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D24" s="24">
-        <v>0.26551924192612653</v>
-      </c>
-      <c r="E24" s="26">
-        <v>0.93247829009770611</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D25" s="20">
-        <v>0.31618759455370643</v>
-      </c>
-      <c r="E25" s="22">
-        <v>0.58533409688567506</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D26" s="16">
-        <v>0.10930487137383692</v>
-      </c>
-      <c r="E26" s="18">
-        <v>0.73188736065155746</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D27" s="16">
-        <v>0</v>
-      </c>
-      <c r="E27" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D28" s="24">
-        <v>1.0834298957126305</v>
-      </c>
-      <c r="E28" s="26">
-        <v>1.0101150907395953</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D29" s="20">
-        <v>1.0517090271691495E-2</v>
-      </c>
-      <c r="E29" s="22">
-        <v>9.430394956320147E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D30" s="16">
-        <v>4.6929691888855277E-2</v>
-      </c>
-      <c r="E30" s="18">
-        <v>0.62678087094135004</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D31" s="16">
-        <v>0</v>
-      </c>
-      <c r="E31" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D32" s="24">
-        <v>0.48775116983209471</v>
-      </c>
-      <c r="E32" s="26">
-        <v>0.94572540144537842</v>
-      </c>
-    </row>
-    <row r="33" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D33" s="20">
-        <v>9.7985074626865676E-2</v>
-      </c>
-      <c r="E33" s="22">
-        <v>0.40616763955398644</v>
-      </c>
-    </row>
-    <row r="34" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D34" s="16">
-        <v>5.5042185616713549E-2</v>
-      </c>
-      <c r="E34" s="18">
-        <v>0.54541802111107052</v>
-      </c>
-    </row>
-    <row r="35" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D35" s="16">
-        <v>0</v>
-      </c>
-      <c r="E35" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D36" s="24">
-        <v>0.78604651162790706</v>
-      </c>
-      <c r="E36" s="26">
-        <v>0.98581523833997187</v>
-      </c>
-    </row>
-    <row r="37" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D37" s="20">
-        <v>2.9052631578947365E-2</v>
-      </c>
-      <c r="E37" s="22">
-        <v>0.32418641316948749</v>
-      </c>
-    </row>
-    <row r="38" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D38" s="17">
-        <v>6.1872909698996656E-2</v>
-      </c>
-      <c r="E38" s="19">
-        <v>0.61283643892339545</v>
-      </c>
-    </row>
-    <row r="39" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D39" s="17">
-        <v>0</v>
-      </c>
-      <c r="E39" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D40" s="25">
-        <v>0.51431049436253262</v>
-      </c>
-      <c r="E40" s="27">
-        <v>0.94741406856256005</v>
-      </c>
-    </row>
-    <row r="41" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D41" s="21">
-        <v>5.594174114531613E-2</v>
-      </c>
-      <c r="E41" s="23">
-        <v>0.38154550797478876</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A11:B11"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8478B74B-AE05-4051-ABAD-E7B02F6104FB}">
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="4"/>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="30">
+        <v>3.4392535429906737E-2</v>
+      </c>
+      <c r="C2" s="30">
+        <v>0.3390850580112918</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="33">
+        <v>94.564928771993863</v>
+      </c>
+      <c r="G2" s="33">
+        <v>22.25954023162538</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="33">
+        <v>0.30514764696778662</v>
+      </c>
+      <c r="C3" s="33">
+        <v>0.94665021081546574</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="33">
+        <v>94.564928771993863</v>
+      </c>
+      <c r="G3" s="33">
+        <v>22.25954023162538</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B4" s="33">
+        <v>0.18492230973091794</v>
+      </c>
+      <c r="C4" s="33">
+        <v>0.62894801769315822</v>
+      </c>
+      <c r="D4" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="33">
+        <v>94.564928771993863</v>
+      </c>
+      <c r="G4" s="33">
+        <v>22.25954023162538</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="28">
+        <v>5.7200000000000001E-2</v>
+      </c>
+      <c r="C5" s="28">
+        <v>0.51290000000000002</v>
+      </c>
+      <c r="D5" s="21" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
-        <v>2.2959999999999998</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
-        <v>2.2839999999999998</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
-        <v>2.8570000000000002</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
-        <v>1.7849999999999999</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
-        <v>2.64</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
-        <v>1.89</v>
-      </c>
-      <c r="B7">
-        <v>6</v>
+      <c r="E5" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="15">
+        <v>95.31</v>
+      </c>
+      <c r="G5" s="15">
+        <v>14.46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="15">
+        <v>0.24640000000000001</v>
+      </c>
+      <c r="C6" s="15">
+        <v>0.90749999999999997</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="15">
+        <v>95.31</v>
+      </c>
+      <c r="G6" s="15">
+        <v>14.46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="15">
+        <v>0.3916</v>
+      </c>
+      <c r="C7" s="15">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="15">
+        <v>95.31</v>
+      </c>
+      <c r="G7" s="15">
+        <v>14.46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="15">
+        <v>4.2688557763950759E-2</v>
+      </c>
+      <c r="C8" s="15">
+        <v>0.42965838120910627</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="15">
+        <v>94.428843323821326</v>
+      </c>
+      <c r="G8" s="15">
+        <v>18.217341631105594</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="15">
+        <v>0.28570301000811255</v>
+      </c>
+      <c r="C9" s="15">
+        <v>0.94029121080461608</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="15">
+        <v>94.428843323821326</v>
+      </c>
+      <c r="G9" s="15">
+        <v>18.217341631105594</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="15">
+        <v>0.2176671344300154</v>
+      </c>
+      <c r="C10" s="15">
+        <v>0.58657807043630217</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="15">
+        <v>94.428843323821326</v>
+      </c>
+      <c r="G10" s="15">
+        <v>18.217341631105594</v>
       </c>
     </row>
   </sheetData>
